--- a/Consumer/Texas Roadhouse.xlsx
+++ b/Consumer/Texas Roadhouse.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22F824E6-C239-1F47-A374-974A9322AC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD03BB1C-3914-164D-BE5F-7A450C21CA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,6 +1009,12 @@
     <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1020,12 +1026,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2378,10 +2378,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>116.72</v>
-    <v>68.58</v>
-    <v>0.96879999999999999</v>
-    <v>-2.2400000000000002</v>
-    <v>-1.9334E-2</v>
+    <v>68.94</v>
+    <v>0.96740000000000004</v>
+    <v>0.03</v>
+    <v>2.7030000000000001E-4</v>
+    <v>1.8</v>
+    <v>1.6215999999999998E-2</v>
     <v>USD</v>
     <v>Texas Roadhouse, Inc. is a restaurant company, which operates predominately in the casual dining segment. The Company owns and operates approximately 597 restaurants and franchised an additional 100 restaurants in 49 states and ten foreign countries. It operates approximately 552 Texas Roadhouse restaurants, 40 as Bubba’s 33 restaurants and five as Jaggers restaurants. Texas Roadhouse is a full-service, casual dining restaurant concept offering an assortment of specially seasoned and aged steaks hand-cut daily on the premises and cooked to order over open grills. Bubba’s 33 is a family-friendly restaurant concept featuring scratch-made food for all with a rock 'n' roll, ice-cold beer and signature drinks. Bubba’s 33’s menu features burgers, pizza and wings, as well as a variety of appetizers, sandwiches and dinner entrees. Jaggers is a fast-casual restaurant concept offering burgers, hand-breaded chicken tenders and chicken sandwiches served with scratch-made sauces.</v>
     <v>82000</v>
@@ -2389,24 +2391,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6040 Dutchmans Ln, LOUISVILLE, KY, 40205 US</v>
-    <v>116.25</v>
+    <v>111.99</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45065.963110312499</v>
+    <v>45091.995463888285</v>
     <v>0</v>
-    <v>112.72</v>
-    <v>7612576000</v>
+    <v>109.67</v>
+    <v>7437034410</v>
     <v>TEXAS ROADHOUSE, INC.</v>
     <v>TEXAS ROADHOUSE, INC.</v>
-    <v>116.2</v>
-    <v>27.256</v>
-    <v>115.86</v>
-    <v>113.62</v>
+    <v>111.14</v>
+    <v>26.627500000000001</v>
+    <v>110.97</v>
+    <v>111</v>
+    <v>112.8</v>
     <v>67000310</v>
     <v>TXRH</v>
     <v>TEXAS ROADHOUSE, INC. (XNAS:TXRH)</v>
-    <v>2123248</v>
-    <v>1110924</v>
+    <v>679503</v>
+    <v>1020782</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2438,6 +2441,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2458,6 +2463,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2474,7 +2480,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2485,13 +2491,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2557,13 +2566,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2608,6 +2623,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2615,6 +2633,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2976,10 +2997,10 @@
   <dimension ref="A1:AF118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="U92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y10" sqref="Y10"/>
+      <selection pane="bottomRight" activeCell="X125" sqref="X125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4382,15 +4403,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>1.8960721249918118</v>
+        <v>1.8523498008303529</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>28.213744079342373</v>
+        <v>27.563151494711249</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>28.661375581693047</v>
+        <v>28.00046087408322</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -9235,10 +9256,10 @@
       <c r="W83" s="1">
         <v>-6099000</v>
       </c>
-      <c r="AD83" s="59" t="s">
+      <c r="AD83" s="61" t="s">
         <v>126</v>
       </c>
-      <c r="AE83" s="60"/>
+      <c r="AE83" s="62"/>
     </row>
     <row r="84" spans="1:31" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -9310,10 +9331,10 @@
       <c r="W84" s="1">
         <v>5408000</v>
       </c>
-      <c r="AD84" s="61" t="s">
+      <c r="AD84" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="AE84" s="62"/>
+      <c r="AE84" s="64"/>
     </row>
     <row r="85" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -10031,10 +10052,10 @@
       <c r="W93" s="1">
         <v>-230981000</v>
       </c>
-      <c r="AD93" s="61" t="s">
+      <c r="AD93" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="AE93" s="62"/>
+      <c r="AE93" s="64"/>
     </row>
     <row r="94" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -10188,7 +10209,7 @@
       </c>
       <c r="AE95" s="38" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.96879999999999999</v>
+        <v>0.96740000000000004</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10343,7 +10364,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.2656840000000009E-2</v>
+        <v>8.2596570000000008E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10416,10 +10437,10 @@
       <c r="W98" s="1">
         <v>-124137000</v>
       </c>
-      <c r="AD98" s="61" t="s">
+      <c r="AD98" s="63" t="s">
         <v>139</v>
       </c>
-      <c r="AE98" s="62"/>
+      <c r="AE98" s="64"/>
     </row>
     <row r="99" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -10574,7 +10595,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>9.0051327167060727E-2</v>
+        <v>9.1981361868817807E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10652,7 +10673,7 @@
       </c>
       <c r="AE101" s="39" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7612576000</v>
+        <v>7437034410</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10730,7 +10751,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.90994867283293923</v>
+        <v>0.90801863813118222</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10808,7 +10829,7 @@
       </c>
       <c r="AE103" s="40">
         <f>AE99+AE101</f>
-        <v>8365940000</v>
+        <v>8190398410</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10881,10 +10902,10 @@
       <c r="W104" s="11">
         <v>173861000</v>
       </c>
-      <c r="AD104" s="61" t="s">
+      <c r="AD104" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="AE104" s="62"/>
+      <c r="AE104" s="64"/>
     </row>
     <row r="105" spans="1:31" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -10986,7 +11007,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.5226287306143114E-2</v>
+        <v>7.5012304907410329E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11120,7 +11141,7 @@
       <c r="AA107" s="42"/>
       <c r="AB107" s="45">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>7880389890.8255529</v>
+        <v>7914106887.7708101</v>
       </c>
       <c r="AC107" s="46" t="s">
         <v>148</v>
@@ -11151,7 +11172,7 @@
       </c>
       <c r="AB108" s="45">
         <f>AB107+AB106</f>
-        <v>8266538892.5241184</v>
+        <v>8300255889.4693756</v>
       </c>
       <c r="AC108" s="46" t="s">
         <v>144</v>
@@ -11161,14 +11182,14 @@
       </c>
       <c r="AE108" s="50">
         <f>AE105</f>
-        <v>7.5226287306143114E-2</v>
+        <v>7.5012304907410329E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
-      <c r="X109" s="63" t="s">
+      <c r="X109" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="Y109" s="64"/>
+      <c r="Y109" s="60"/>
     </row>
     <row r="110" spans="1:31" ht="20" x14ac:dyDescent="0.25">
       <c r="X110" s="51" t="s">
@@ -11176,7 +11197,7 @@
       </c>
       <c r="Y110" s="39">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>6820651147.9207354</v>
+        <v>6850395206.1094141</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11203,7 +11224,7 @@
       </c>
       <c r="Y113" s="39">
         <f>Y110+Y111-Y112</f>
-        <v>6241148147.9207354</v>
+        <v>6270892206.1094141</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11221,7 +11242,7 @@
       </c>
       <c r="Y115" s="54">
         <f>Y113/Y114</f>
-        <v>96.829603936796374</v>
+        <v>97.291074375507606</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11230,7 +11251,7 @@
       </c>
       <c r="Y116" s="55" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price",TRUE)</f>
-        <v>113.62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11239,7 +11260,7 @@
       </c>
       <c r="Y117" s="57">
         <f>Y115/Y116-1</f>
-        <v>-0.14777676521038219</v>
+        <v>-0.12350383445488644</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Texas Roadhouse.xlsx
+++ b/Consumer/Texas Roadhouse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD03BB1C-3914-164D-BE5F-7A450C21CA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68BAFF3-8F29-9E4C-940D-97D3373DEE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2378,12 +2378,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>116.72</v>
-    <v>68.94</v>
-    <v>0.96740000000000004</v>
-    <v>0.03</v>
-    <v>2.7030000000000001E-4</v>
-    <v>1.8</v>
-    <v>1.6215999999999998E-2</v>
+    <v>71.349999999999994</v>
+    <v>0.9617</v>
+    <v>1.25</v>
+    <v>1.1495E-2</v>
     <v>USD</v>
     <v>Texas Roadhouse, Inc. is a restaurant company, which operates predominately in the casual dining segment. The Company owns and operates approximately 597 restaurants and franchised an additional 100 restaurants in 49 states and ten foreign countries. It operates approximately 552 Texas Roadhouse restaurants, 40 as Bubba’s 33 restaurants and five as Jaggers restaurants. Texas Roadhouse is a full-service, casual dining restaurant concept offering an assortment of specially seasoned and aged steaks hand-cut daily on the premises and cooked to order over open grills. Bubba’s 33 is a family-friendly restaurant concept featuring scratch-made food for all with a rock 'n' roll, ice-cold beer and signature drinks. Bubba’s 33’s menu features burgers, pizza and wings, as well as a variety of appetizers, sandwiches and dinner entrees. Jaggers is a fast-casual restaurant concept offering burgers, hand-breaded chicken tenders and chicken sandwiches served with scratch-made sauces.</v>
     <v>82000</v>
@@ -2391,25 +2389,24 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6040 Dutchmans Ln, LOUISVILLE, KY, 40205 US</v>
-    <v>111.99</v>
+    <v>111.53</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45091.995463888285</v>
+    <v>45100.783633969528</v>
     <v>0</v>
-    <v>109.67</v>
-    <v>7437034410</v>
+    <v>108.215</v>
+    <v>7369364096</v>
     <v>TEXAS ROADHOUSE, INC.</v>
     <v>TEXAS ROADHOUSE, INC.</v>
-    <v>111.14</v>
-    <v>26.627500000000001</v>
-    <v>110.97</v>
-    <v>111</v>
-    <v>112.8</v>
+    <v>108.57</v>
+    <v>26.0853</v>
+    <v>108.74</v>
+    <v>109.99</v>
     <v>67000310</v>
     <v>TXRH</v>
     <v>TEXAS ROADHOUSE, INC. (XNAS:TXRH)</v>
-    <v>679503</v>
-    <v>1020782</v>
+    <v>962353</v>
+    <v>1001506</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2441,8 +2438,6 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
-    <k n="Change (Extended hours)"/>
-    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2463,7 +2458,6 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
-    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2480,7 +2474,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="45">
+    <a count="42">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2491,16 +2485,13 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
-      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
-      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
-      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2566,19 +2557,13 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
-      <v>1</v>
-      <v>1</v>
-      <v>5</v>
     </spb>
     <spb s="4">
-      <v>at close</v>
+      <v>Real-Time Nasdaq Last Sale</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq</v>
+      <v>Source: Nasdaq Last Sale</v>
       <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2623,9 +2608,6 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
-    <k n="Price (Extended hours)" t="i"/>
-    <k n="Change (Extended hours)" t="i"/>
-    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2633,9 +2615,6 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
-    <k n="Price (Extended hours)" t="s"/>
-    <k n="Change (Extended hours)" t="s"/>
-    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3000,7 +2979,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X125" sqref="X125"/>
+      <selection pane="bottomRight" activeCell="V116" sqref="V116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4403,15 +4382,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>1.8523498008303529</v>
+        <v>1.8354950862022372</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>27.563151494711249</v>
+        <v>27.312351644441808</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>28.00046087408322</v>
+        <v>27.745681902380987</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10209,7 +10188,7 @@
       </c>
       <c r="AE95" s="38" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.96740000000000004</v>
+        <v>0.9617</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10364,7 +10343,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.2596570000000008E-2</v>
+        <v>8.2351185000000007E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10595,7 +10574,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>9.1981361868817807E-2</v>
+        <v>9.2747657079767398E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10673,7 +10652,7 @@
       </c>
       <c r="AE101" s="39" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7437034410</v>
+        <v>7369364096</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10751,7 +10730,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.90801863813118222</v>
+        <v>0.9072523429202326</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10829,7 +10808,7 @@
       </c>
       <c r="AE103" s="40">
         <f>AE99+AE101</f>
-        <v>8190398410</v>
+        <v>8122728096</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -11007,7 +10986,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.5012304907410329E-2</v>
+        <v>7.4726494403656668E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11141,7 +11120,7 @@
       <c r="AA107" s="42"/>
       <c r="AB107" s="45">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>7914106887.7708101</v>
+        <v>7959594407.1200075</v>
       </c>
       <c r="AC107" s="46" t="s">
         <v>148</v>
@@ -11172,7 +11151,7 @@
       </c>
       <c r="AB108" s="45">
         <f>AB107+AB106</f>
-        <v>8300255889.4693756</v>
+        <v>8345743408.818573</v>
       </c>
       <c r="AC108" s="46" t="s">
         <v>144</v>
@@ -11182,7 +11161,7 @@
       </c>
       <c r="AE108" s="50">
         <f>AE105</f>
-        <v>7.5012304907410329E-2</v>
+        <v>7.4726494403656668E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11197,7 +11176,7 @@
       </c>
       <c r="Y110" s="39">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>6850395206.1094141</v>
+        <v>6890523545.215313</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11224,7 +11203,7 @@
       </c>
       <c r="Y113" s="39">
         <f>Y110+Y111-Y112</f>
-        <v>6270892206.1094141</v>
+        <v>6311020545.215313</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11242,7 +11221,7 @@
       </c>
       <c r="Y115" s="54">
         <f>Y113/Y114</f>
-        <v>97.291074375507606</v>
+        <v>97.913653921798328</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11251,7 +11230,7 @@
       </c>
       <c r="Y116" s="55" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price",TRUE)</f>
-        <v>111</v>
+        <v>109.99</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11260,7 +11239,7 @@
       </c>
       <c r="Y117" s="57">
         <f>Y115/Y116-1</f>
-        <v>-0.12350383445488644</v>
+        <v>-0.10979494570598847</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">

--- a/Consumer/Texas Roadhouse.xlsx
+++ b/Consumer/Texas Roadhouse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Consumer/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E68BAFF3-8F29-9E4C-940D-97D3373DEE4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E39D1F80-9663-DE49-A232-C0DC67E86A0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2378,10 +2378,10 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>116.72</v>
-    <v>71.349999999999994</v>
-    <v>0.9617</v>
-    <v>1.25</v>
-    <v>1.1495E-2</v>
+    <v>76.38</v>
+    <v>0.97430000000000005</v>
+    <v>1.04</v>
+    <v>9.2119999999999997E-3</v>
     <v>USD</v>
     <v>Texas Roadhouse, Inc. is a restaurant company, which operates predominately in the casual dining segment. The Company owns and operates approximately 597 restaurants and franchised an additional 100 restaurants in 49 states and ten foreign countries. It operates approximately 552 Texas Roadhouse restaurants, 40 as Bubba’s 33 restaurants and five as Jaggers restaurants. Texas Roadhouse is a full-service, casual dining restaurant concept offering an assortment of specially seasoned and aged steaks hand-cut daily on the premises and cooked to order over open grills. Bubba’s 33 is a family-friendly restaurant concept featuring scratch-made food for all with a rock 'n' roll, ice-cold beer and signature drinks. Bubba’s 33’s menu features burgers, pizza and wings, as well as a variety of appetizers, sandwiches and dinner entrees. Jaggers is a fast-casual restaurant concept offering burgers, hand-breaded chicken tenders and chicken sandwiches served with scratch-made sauces.</v>
     <v>82000</v>
@@ -2389,24 +2389,25 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>6040 Dutchmans Ln, LOUISVILLE, KY, 40205 US</v>
-    <v>111.53</v>
+    <v>114.25</v>
     <v>Hotels &amp; Entertainment Services</v>
     <v>Stock</v>
-    <v>45100.783633969528</v>
+    <v>45118.99701259219</v>
     <v>0</v>
-    <v>108.215</v>
-    <v>7369364096</v>
+    <v>112.86</v>
+    <v>7634015321</v>
     <v>TEXAS ROADHOUSE, INC.</v>
     <v>TEXAS ROADHOUSE, INC.</v>
-    <v>108.57</v>
-    <v>26.0853</v>
-    <v>108.74</v>
-    <v>109.99</v>
+    <v>113.42</v>
+    <v>27.332699999999999</v>
+    <v>112.9</v>
+    <v>113.94</v>
+    <v>114.48</v>
     <v>67000310</v>
     <v>TXRH</v>
     <v>TEXAS ROADHOUSE, INC. (XNAS:TXRH)</v>
-    <v>962353</v>
-    <v>1001506</v>
+    <v>11</v>
+    <v>1269914</v>
     <v>2004</v>
   </rv>
   <rv s="2">
@@ -2458,6 +2459,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2474,7 +2476,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="43">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2485,6 +2487,7 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
@@ -2557,13 +2560,15 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
     </spb>
     <spb s="4">
-      <v>Real-Time Nasdaq Last Sale</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
-      <v>Source: Nasdaq Last Sale</v>
+      <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2608,6 +2613,7 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2615,6 +2621,7 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -2979,7 +2986,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="U92" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V116" sqref="V116"/>
+      <selection pane="bottomRight" activeCell="Y98" sqref="Y98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4382,15 +4389,15 @@
       </c>
       <c r="AD16" s="30">
         <f>AE101/W3</f>
-        <v>1.8354950862022372</v>
+        <v>1.9014120386986637</v>
       </c>
       <c r="AE16" s="30">
         <f>AE101/W28</f>
-        <v>27.312351644441808</v>
+        <v>28.29320253281842</v>
       </c>
       <c r="AF16" s="31">
         <f>AE101/W106</f>
-        <v>27.745681902380987</v>
+        <v>28.742094701134018</v>
       </c>
     </row>
     <row r="17" spans="1:29" ht="19" x14ac:dyDescent="0.25">
@@ -10188,7 +10195,7 @@
       </c>
       <c r="AE95" s="38" cm="1">
         <f t="array" ref="AE95">_FV(A1,"Beta")</f>
-        <v>0.9617</v>
+        <v>0.97430000000000005</v>
       </c>
     </row>
     <row r="96" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10343,7 +10350,7 @@
       </c>
       <c r="AE97" s="36">
         <f>(AE94)+((AE95)*(AE96-AE94))</f>
-        <v>8.2351185000000007E-2</v>
+        <v>8.2893615000000004E-2</v>
       </c>
     </row>
     <row r="98" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -10574,7 +10581,7 @@
       </c>
       <c r="AE100" s="34">
         <f>AE99/AE103</f>
-        <v>9.2747657079767398E-2</v>
+        <v>8.9821143311565266E-2</v>
       </c>
     </row>
     <row r="101" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10652,7 +10659,7 @@
       </c>
       <c r="AE101" s="39" cm="1">
         <f t="array" ref="AE101">_FV(A1,"Market cap",TRUE)</f>
-        <v>7369364096</v>
+        <v>7634015321</v>
       </c>
     </row>
     <row r="102" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10730,7 +10737,7 @@
       </c>
       <c r="AE102" s="34">
         <f>AE101/AE103</f>
-        <v>0.9072523429202326</v>
+        <v>0.91017885668843468</v>
       </c>
     </row>
     <row r="103" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -10808,7 +10815,7 @@
       </c>
       <c r="AE103" s="40">
         <f>AE99+AE101</f>
-        <v>8122728096</v>
+        <v>8387379321</v>
       </c>
     </row>
     <row r="104" spans="1:31" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -10986,7 +10993,7 @@
       </c>
       <c r="AE105" s="26">
         <f>(AE100*AE92)+(AE102*AE97)</f>
-        <v>7.4726494403656668E-2</v>
+        <v>7.5460788442525045E-2</v>
       </c>
     </row>
     <row r="106" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11120,7 +11127,7 @@
       <c r="AA107" s="42"/>
       <c r="AB107" s="45">
         <f>AB106*(1+AE107)/(AE108-AE107)</f>
-        <v>7959594407.1200075</v>
+        <v>7843768180.3535471</v>
       </c>
       <c r="AC107" s="46" t="s">
         <v>148</v>
@@ -11151,7 +11158,7 @@
       </c>
       <c r="AB108" s="45">
         <f>AB107+AB106</f>
-        <v>8345743408.818573</v>
+        <v>8229917182.0521126</v>
       </c>
       <c r="AC108" s="46" t="s">
         <v>144</v>
@@ -11161,7 +11168,7 @@
       </c>
       <c r="AE108" s="50">
         <f>AE105</f>
-        <v>7.4726494403656668E-2</v>
+        <v>7.5460788442525045E-2</v>
       </c>
     </row>
     <row r="109" spans="1:31" ht="19" x14ac:dyDescent="0.25">
@@ -11176,7 +11183,7 @@
       </c>
       <c r="Y110" s="39">
         <f>NPV(AE108,X108,Y108,Z108,AA108,AB108)</f>
-        <v>6890523545.215313</v>
+        <v>6788345152.8156099</v>
       </c>
     </row>
     <row r="111" spans="1:31" ht="20" x14ac:dyDescent="0.25">
@@ -11203,7 +11210,7 @@
       </c>
       <c r="Y113" s="39">
         <f>Y110+Y111-Y112</f>
-        <v>6311020545.215313</v>
+        <v>6208842152.8156099</v>
       </c>
     </row>
     <row r="114" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11221,7 +11228,7 @@
       </c>
       <c r="Y115" s="54">
         <f>Y113/Y114</f>
-        <v>97.913653921798328</v>
+        <v>96.328385789642539</v>
       </c>
     </row>
     <row r="116" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11230,7 +11237,7 @@
       </c>
       <c r="Y116" s="55" cm="1">
         <f t="array" ref="Y116">_FV(A1,"Price",TRUE)</f>
-        <v>109.99</v>
+        <v>113.94</v>
       </c>
     </row>
     <row r="117" spans="24:25" ht="20" x14ac:dyDescent="0.25">
@@ -11239,7 +11246,7 @@
       </c>
       <c r="Y117" s="57">
         <f>Y115/Y116-1</f>
-        <v>-0.10979494570598847</v>
+        <v>-0.15456919615900877</v>
       </c>
     </row>
     <row r="118" spans="24:25" ht="20" x14ac:dyDescent="0.25">
